--- a/回测记录/5日线下阳线策略回测.xlsx
+++ b/回测记录/5日线下阳线策略回测.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/woojean/ThinkingInTrade/策略回测/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujian/woojean/StockParser/回测记录/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="20840" yWindow="1500" windowWidth="31280" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>持股</t>
   </si>
@@ -294,22 +294,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>阳线，最高价低于5日线，向上波幅大于5%</t>
-    <rPh sb="0" eb="1">
-      <t>yang'x</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xiang'shang</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>bo'fu</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>da'yu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>持有20日，3:1止盈止损</t>
     <rPh sb="9" eb="10">
       <t>zhi'ying</t>
@@ -362,6 +346,215 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ri</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>阳线，最高价低于5日线，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>振幅大于5%</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zehn'fu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>da'yu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">阳线，最高价低于5日线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>振幅大于5%
+剔除3日内SLOWKD有死叉</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ti'chu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>you</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>si'cha</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳线，最高价低于5日线，量为5日新高</t>
+    <rPh sb="0" eb="1">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xin'gao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳线，最高价低于5日线，量为5日最低</t>
+    <rPh sb="0" eb="1">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zui'di</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>阳线，最高价低于5日线，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量比最高</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zui'gao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>阳线，最高价低于5日线，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光头</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guang'tou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>阳线，最高价低于5日线，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光头、量比最高</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guang'tou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>liang'bi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>阳线，最高价低于5日线，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>振幅最大</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhen'fu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zui'd</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -373,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,8 +645,34 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="STHeiti"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +691,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -522,49 +747,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -589,13 +868,81 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -870,1364 +1217,1976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:N32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G48" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="47.5" style="22" customWidth="1"/>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="6"/>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D3" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E3" s="12">
-        <v>201</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="C3" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E3" s="3">
+        <v>201</v>
+      </c>
+      <c r="F3" s="3">
         <v>66562</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="3">
         <v>331</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="3">
         <v>35165</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="3">
         <v>31397</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="4">
         <v>0.52829999999999999</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="4">
         <v>2.0070000000000001E-2</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="4">
         <v>-3.2070000000000001E-2</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="4">
         <v>-3.5500000000000002E-3</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="4">
         <v>-4.5300000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D4" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E4" s="12">
-        <v>201</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="C4" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E4" s="3">
+        <v>201</v>
+      </c>
+      <c r="F4" s="3">
         <v>66208</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="3">
         <v>329</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="3">
         <v>51044</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="3">
         <v>15164</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="5">
         <v>0.77095999999999998</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="4">
         <v>2.0049999999999998E-2</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="4">
         <v>-0.11045000000000001</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="4">
         <v>-1.634E-2</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="4">
         <v>-9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D5" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E5" s="12">
-        <v>201</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="C5" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E5" s="3">
+        <v>201</v>
+      </c>
+      <c r="F5" s="3">
         <v>66294</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="3">
         <v>329</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="3">
         <v>32840</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="3">
         <v>33454</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="4">
         <v>0.49536999999999998</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="4">
         <v>4.4179999999999997E-2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="4">
         <v>-5.296E-2</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="23">
         <v>-7.3699999999999998E-3</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="23">
         <v>-4.8399999999999997E-3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D6" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E6" s="12">
-        <v>201</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="C6" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E6" s="3">
+        <v>201</v>
+      </c>
+      <c r="F6" s="3">
         <v>12390</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="3">
         <v>61</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="3">
         <v>7437</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="3">
         <v>4953</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="4">
         <v>0.60024</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="4">
         <v>4.4740000000000002E-2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="4">
         <v>-4.9209999999999997E-2</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="4">
         <v>-9.6299999999999997E-3</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="4">
         <v>7.1900000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D7" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E7" s="12">
-        <v>201</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="C7" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E7" s="3">
+        <v>201</v>
+      </c>
+      <c r="F7" s="3">
         <v>9464</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="3">
         <v>47</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="3">
         <v>5900</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="3">
         <v>3564</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="4">
         <v>0.62341999999999997</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="4">
         <v>5.8549999999999998E-2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="4">
         <v>-4.4949999999999997E-2</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="4">
         <v>-2.0400000000000001E-3</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="4">
         <v>1.958E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D8" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E8" s="12">
-        <v>201</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="C8" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E8" s="3">
+        <v>201</v>
+      </c>
+      <c r="F8" s="3">
         <v>1570</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="3">
         <v>671</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="3">
         <v>899</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="4">
         <v>0.42738999999999999</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="4">
         <v>6.5460000000000004E-2</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="4">
         <v>-6.1289999999999997E-2</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="4">
         <v>-1.3639999999999999E-2</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="4">
         <v>-7.1199999999999996E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D9" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E9" s="12">
-        <v>201</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="C9" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E9" s="3">
+        <v>201</v>
+      </c>
+      <c r="F9" s="3">
         <v>18943</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="3">
         <v>94</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="3">
         <v>10405</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="3">
         <v>8538</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="4">
         <v>0.54927999999999999</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="4">
         <v>5.0279999999999998E-2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="4">
         <v>-4.9390000000000003E-2</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="4">
         <v>-7.0800000000000004E-3</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="4">
         <v>5.3499999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D10" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E10" s="12">
-        <v>201</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="C10" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E10" s="3">
+        <v>201</v>
+      </c>
+      <c r="F10" s="3">
         <v>6399</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="3">
         <v>31</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="3">
         <v>3117</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="3">
         <v>3282</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="4">
         <v>0.48710999999999999</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="4">
         <v>4.4569999999999999E-2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="4">
         <v>-4.7989999999999998E-2</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="4">
         <v>-9.4299999999999991E-3</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="4">
         <v>-2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D11" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E11" s="12">
-        <v>201</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="C11" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E11" s="3">
+        <v>201</v>
+      </c>
+      <c r="F11" s="3">
         <v>14762</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="3">
         <v>73</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="3">
         <v>6860</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="3">
         <v>7902</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="4">
         <v>0.46471000000000001</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="4">
         <v>4.7820000000000001E-2</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="4">
         <v>-5.2229999999999999E-2</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="4">
         <v>-7.92E-3</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="4">
         <v>-5.7400000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D12" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E12" s="12">
-        <v>201</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="C12" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E12" s="3">
+        <v>201</v>
+      </c>
+      <c r="F12" s="3">
         <v>49128</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="3">
         <v>244</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="3">
         <v>24757</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="3">
         <v>24371</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="4">
         <v>0.50392999999999999</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="4">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="4">
         <v>-5.21E-2</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="4">
         <v>-7.5799999999999999E-3</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="4">
         <v>-4.6299999999999996E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D13" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E13" s="12">
-        <v>201</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="C13" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E13" s="3">
+        <v>201</v>
+      </c>
+      <c r="F13" s="3">
         <v>4599</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="3">
         <v>22</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="3">
         <v>2740</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="3">
         <v>1859</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="4">
         <v>0.59577999999999998</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="4">
         <v>6.9360000000000005E-2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="4">
         <v>-5.3310000000000003E-2</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="4">
         <v>-3.7799999999999999E-3</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="4">
         <v>1.9779999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D14" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E14" s="12">
-        <v>201</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="C14" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E14" s="3">
+        <v>201</v>
+      </c>
+      <c r="F14" s="3">
         <v>4618</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="3">
         <v>22</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="3">
         <v>3407</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="3">
         <v>1211</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="4">
         <v>0.73777000000000004</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="4">
         <v>2.01E-2</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="4">
         <v>-6.1920000000000003E-2</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="4">
         <v>-4.1200000000000004E-3</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="4">
         <v>-1.41E-3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D15" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E15" s="12">
-        <v>201</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="C15" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E15" s="3">
+        <v>201</v>
+      </c>
+      <c r="F15" s="3">
         <v>4611</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="3">
         <v>22</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="3">
         <v>4156</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="3">
         <v>455</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="5">
         <v>0.90132000000000001</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="4">
         <v>2.0109999999999999E-2</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="4">
         <v>-0.11788</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="4">
         <v>-1.435E-2</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="4">
         <v>6.4900000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D16" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E16" s="12">
-        <v>201</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="C16" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E16" s="3">
+        <v>201</v>
+      </c>
+      <c r="F16" s="3">
         <v>4624</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="3">
         <v>23</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="3">
         <v>3407</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="3">
         <v>1217</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="5">
         <v>0.73680999999999996</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="4">
         <v>3.0540000000000001E-2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="4">
         <v>-6.1800000000000001E-2</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="5">
         <v>2.99E-3</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="4">
         <v>6.2300000000000003E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D17" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E17" s="12">
-        <v>201</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="C17" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E17" s="3">
+        <v>201</v>
+      </c>
+      <c r="F17" s="3">
         <v>4612</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="3">
         <v>22</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="3">
         <v>4156</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="3">
         <v>456</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="5">
         <v>0.90112999999999999</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="4">
         <v>2.971E-2</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="4">
         <v>-0.11348</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="5">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="4">
         <v>1.5559999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D18" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E18" s="12">
-        <v>201</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="C18" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E18" s="3">
+        <v>201</v>
+      </c>
+      <c r="F18" s="3">
         <v>15684</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="3">
         <v>78</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="3">
         <v>6962</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="3">
         <v>8722</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="4">
         <v>0.44389000000000001</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="4">
         <v>4.4080000000000001E-2</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="4">
         <v>-5.1400000000000001E-2</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="4">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="4">
         <v>-9.0200000000000002E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D19" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E19" s="12">
-        <v>201</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="C19" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E19" s="3">
+        <v>201</v>
+      </c>
+      <c r="F19" s="3">
         <v>15770</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="3">
         <v>78</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="3">
         <v>7256</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="3">
         <v>8514</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="4">
         <v>0.46011000000000002</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="4">
         <v>2.777E-2</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="4">
         <v>-3.533E-2</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="4">
         <v>-4.5100000000000001E-3</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="4">
         <v>-6.2899999999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="11">
-        <v>43102</v>
-      </c>
-      <c r="D20" s="11">
-        <v>43404</v>
-      </c>
-      <c r="E20" s="12">
-        <v>201</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="C20" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E20" s="3">
+        <v>201</v>
+      </c>
+      <c r="F20" s="3">
         <v>15765</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="3">
         <v>78</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="3">
         <v>5530</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="3">
         <v>10235</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="4">
         <v>0.35077999999999998</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="4">
         <v>5.0049999999999997E-2</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="4">
         <v>-3.338E-2</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="4">
         <v>-2.6800000000000001E-3</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="4">
         <v>-4.1099999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D21" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E21" s="12">
+        <v>201</v>
+      </c>
+      <c r="F21" s="12">
+        <v>12630</v>
+      </c>
+      <c r="G21" s="12">
+        <v>62</v>
+      </c>
+      <c r="H21" s="12">
+        <v>7558</v>
+      </c>
+      <c r="I21" s="12">
+        <v>5072</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.59841999999999995</v>
+      </c>
+      <c r="K21" s="13">
+        <v>5.9679999999999997E-2</v>
+      </c>
+      <c r="L21" s="13">
+        <v>-5.0700000000000002E-2</v>
+      </c>
+      <c r="M21" s="13">
+        <v>-6.9100000000000003E-3</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1.5350000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E22" s="8">
+        <v>201</v>
+      </c>
+      <c r="F22" s="8">
+        <v>12662</v>
+      </c>
+      <c r="G22" s="8">
+        <v>62</v>
+      </c>
+      <c r="H22" s="8">
+        <v>6592</v>
+      </c>
+      <c r="I22" s="8">
+        <v>6070</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.52061000000000002</v>
+      </c>
+      <c r="K22" s="9">
+        <v>3.73E-2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>-3.5299999999999998E-2</v>
+      </c>
+      <c r="M22" s="19">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="N22" s="9">
+        <v>2.49E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D23" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E23" s="12">
+        <v>201</v>
+      </c>
+      <c r="F23" s="12">
+        <v>12612</v>
+      </c>
+      <c r="G23" s="12">
+        <v>62</v>
+      </c>
+      <c r="H23" s="12">
+        <v>5966</v>
+      </c>
+      <c r="I23" s="12">
+        <v>6646</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0.47304000000000002</v>
+      </c>
+      <c r="K23" s="13">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="L23" s="13">
+        <v>-3.4509999999999999E-2</v>
+      </c>
+      <c r="M23" s="15">
+        <v>4.5700000000000003E-3</v>
+      </c>
+      <c r="N23" s="13">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D24" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E24" s="12">
+        <v>201</v>
+      </c>
+      <c r="F24" s="12">
+        <v>12511</v>
+      </c>
+      <c r="G24" s="12">
+        <v>62</v>
+      </c>
+      <c r="H24" s="12">
+        <v>5121</v>
+      </c>
+      <c r="I24" s="12">
+        <v>7390</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0.40932000000000002</v>
+      </c>
+      <c r="K24" s="13">
+        <v>6.0920000000000002E-2</v>
+      </c>
+      <c r="L24" s="13">
+        <v>-3.3579999999999999E-2</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1.7099999999999999E-3</v>
+      </c>
+      <c r="N24" s="13">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D25" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E25" s="12">
+        <v>201</v>
+      </c>
+      <c r="F25" s="12">
+        <v>12667</v>
+      </c>
+      <c r="G25" s="12">
+        <v>63</v>
+      </c>
+      <c r="H25" s="12">
+        <v>8803</v>
+      </c>
+      <c r="I25" s="12">
+        <v>3864</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.69496000000000002</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2.009E-2</v>
+      </c>
+      <c r="L25" s="13">
+        <v>-5.289E-2</v>
+      </c>
+      <c r="M25" s="13">
+        <v>-4.4099999999999999E-3</v>
+      </c>
+      <c r="N25" s="13">
+        <v>-2.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D26" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E26" s="12">
+        <v>201</v>
+      </c>
+      <c r="F26" s="12">
+        <v>12645</v>
+      </c>
+      <c r="G26" s="12">
+        <v>62</v>
+      </c>
+      <c r="H26" s="12">
+        <v>11269</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1376</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0.89117999999999997</v>
+      </c>
+      <c r="K26" s="13">
+        <v>2.01E-2</v>
+      </c>
+      <c r="L26" s="13">
+        <v>-0.11652999999999999</v>
+      </c>
+      <c r="M26" s="13">
+        <v>-1.66E-2</v>
+      </c>
+      <c r="N26" s="13">
+        <v>5.2300000000000003E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D27" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E27" s="12">
+        <v>201</v>
+      </c>
+      <c r="F27" s="12">
+        <v>12684</v>
+      </c>
+      <c r="G27" s="12">
+        <v>63</v>
+      </c>
+      <c r="H27" s="12">
+        <v>8970</v>
+      </c>
+      <c r="I27" s="12">
+        <v>3714</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0.70718999999999999</v>
+      </c>
+      <c r="K27" s="13">
+        <v>2.7310000000000001E-2</v>
+      </c>
+      <c r="L27" s="13">
+        <v>-5.3429999999999998E-2</v>
+      </c>
+      <c r="M27" s="15">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="N27" s="13">
+        <v>3.6700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D28" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E28" s="12">
+        <v>201</v>
+      </c>
+      <c r="F28" s="12">
+        <v>12652</v>
+      </c>
+      <c r="G28" s="12">
+        <v>62</v>
+      </c>
+      <c r="H28" s="12">
+        <v>11394</v>
+      </c>
+      <c r="I28" s="12">
+        <v>1258</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.90056999999999998</v>
+      </c>
+      <c r="K28" s="13">
+        <v>2.6540000000000001E-2</v>
+      </c>
+      <c r="L28" s="13">
+        <v>-0.11631</v>
+      </c>
+      <c r="M28" s="13">
+        <v>-6.6899999999999998E-3</v>
+      </c>
+      <c r="N28" s="13">
+        <v>1.2330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D29" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E29" s="12">
+        <v>201</v>
+      </c>
+      <c r="F29" s="12">
+        <v>12655</v>
+      </c>
+      <c r="G29" s="12">
+        <v>62</v>
+      </c>
+      <c r="H29" s="12">
+        <v>7010</v>
+      </c>
+      <c r="I29" s="12">
+        <v>5645</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0.55393000000000003</v>
+      </c>
+      <c r="K29" s="13">
+        <v>5.6059999999999999E-2</v>
+      </c>
+      <c r="L29" s="13">
+        <v>-5.2900000000000003E-2</v>
+      </c>
+      <c r="M29" s="13">
+        <v>-2.7699999999999999E-3</v>
+      </c>
+      <c r="N29" s="13">
+        <v>7.45E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="11">
+        <v>43102</v>
+      </c>
+      <c r="D30" s="11">
+        <v>43404</v>
+      </c>
+      <c r="E30" s="12">
+        <v>201</v>
+      </c>
+      <c r="F30" s="12">
+        <v>12645</v>
+      </c>
+      <c r="G30" s="12">
+        <v>62</v>
+      </c>
+      <c r="H30" s="12">
+        <v>5687</v>
+      </c>
+      <c r="I30" s="12">
+        <v>6958</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0.44973999999999997</v>
+      </c>
+      <c r="K30" s="13">
+        <v>9.2020000000000005E-2</v>
+      </c>
+      <c r="L30" s="13">
+        <v>-5.0909999999999997E-2</v>
+      </c>
+      <c r="M30" s="13">
+        <v>-9.0000000000000006E-5</v>
+      </c>
+      <c r="N30" s="13">
+        <v>1.337E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="C31" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D31" s="16">
+        <v>43404</v>
+      </c>
+      <c r="E31" s="17">
+        <v>201</v>
+      </c>
+      <c r="F31" s="17">
+        <v>12629</v>
+      </c>
+      <c r="G31" s="17">
+        <v>62</v>
+      </c>
+      <c r="H31" s="17">
+        <v>5148</v>
+      </c>
+      <c r="I31" s="17">
+        <v>7481</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0.40762999999999999</v>
+      </c>
+      <c r="K31" s="18">
+        <v>0.10704</v>
+      </c>
+      <c r="L31" s="18">
+        <v>-4.9939999999999998E-2</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-3.8600000000000001E-3</v>
+      </c>
+      <c r="N31" s="18">
+        <v>1.405E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="16">
+        <v>43102</v>
+      </c>
+      <c r="D32" s="16">
+        <v>43404</v>
+      </c>
+      <c r="E32" s="17">
+        <v>201</v>
+      </c>
+      <c r="F32" s="17">
+        <v>12119</v>
+      </c>
+      <c r="G32" s="17">
+        <v>60</v>
+      </c>
+      <c r="H32" s="17">
+        <v>5387</v>
+      </c>
+      <c r="I32" s="17">
+        <v>6732</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0.44451000000000002</v>
+      </c>
+      <c r="K32" s="18">
+        <v>6.3509999999999997E-2</v>
+      </c>
+      <c r="L32" s="18">
+        <v>-4.6620000000000002E-2</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="N32" s="18">
+        <v>2.33E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D21" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E21" s="23">
-        <v>201</v>
-      </c>
-      <c r="F21" s="23">
-        <v>12630</v>
-      </c>
-      <c r="G21" s="23">
-        <v>62</v>
-      </c>
-      <c r="H21" s="23">
-        <v>7558</v>
-      </c>
-      <c r="I21" s="23">
-        <v>5072</v>
-      </c>
-      <c r="J21" s="24">
-        <v>0.59841999999999995</v>
-      </c>
-      <c r="K21" s="24">
-        <v>5.9679999999999997E-2</v>
-      </c>
-      <c r="L21" s="24">
-        <v>-5.0700000000000002E-2</v>
-      </c>
-      <c r="M21" s="24">
-        <v>-6.9100000000000003E-3</v>
-      </c>
-      <c r="N21" s="24">
-        <v>1.5350000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="18">
-        <v>43102</v>
-      </c>
-      <c r="D22" s="18">
-        <v>43404</v>
-      </c>
-      <c r="E22" s="19">
-        <v>201</v>
-      </c>
-      <c r="F22" s="19">
-        <v>12662</v>
-      </c>
-      <c r="G22" s="19">
-        <v>62</v>
-      </c>
-      <c r="H22" s="19">
-        <v>6592</v>
-      </c>
-      <c r="I22" s="19">
-        <v>6070</v>
-      </c>
-      <c r="J22" s="20">
-        <v>0.52061000000000002</v>
-      </c>
-      <c r="K22" s="20">
-        <v>3.73E-2</v>
-      </c>
-      <c r="L22" s="20">
-        <v>-3.5299999999999998E-2</v>
-      </c>
-      <c r="M22" s="31">
-        <v>4.7699999999999999E-3</v>
-      </c>
-      <c r="N22" s="20">
-        <v>2.49E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D23" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E23" s="23">
-        <v>201</v>
-      </c>
-      <c r="F23" s="23">
-        <v>12612</v>
-      </c>
-      <c r="G23" s="23">
-        <v>62</v>
-      </c>
-      <c r="H23" s="23">
-        <v>5966</v>
-      </c>
-      <c r="I23" s="23">
-        <v>6646</v>
-      </c>
-      <c r="J23" s="24">
-        <v>0.47304000000000002</v>
-      </c>
-      <c r="K23" s="24">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="L23" s="24">
-        <v>-3.4509999999999999E-2</v>
-      </c>
-      <c r="M23" s="26">
-        <v>4.5700000000000003E-3</v>
-      </c>
-      <c r="N23" s="24">
-        <v>5.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D24" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E24" s="23">
-        <v>201</v>
-      </c>
-      <c r="F24" s="23">
-        <v>12511</v>
-      </c>
-      <c r="G24" s="23">
-        <v>62</v>
-      </c>
-      <c r="H24" s="23">
-        <v>5121</v>
-      </c>
-      <c r="I24" s="23">
-        <v>7390</v>
-      </c>
-      <c r="J24" s="24">
-        <v>0.40932000000000002</v>
-      </c>
-      <c r="K24" s="24">
-        <v>6.0920000000000002E-2</v>
-      </c>
-      <c r="L24" s="24">
-        <v>-3.3579999999999999E-2</v>
-      </c>
-      <c r="M24" s="26">
-        <v>1.7099999999999999E-3</v>
-      </c>
-      <c r="N24" s="24">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D25" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E25" s="23">
-        <v>201</v>
-      </c>
-      <c r="F25" s="23">
-        <v>12667</v>
-      </c>
-      <c r="G25" s="23">
-        <v>63</v>
-      </c>
-      <c r="H25" s="23">
-        <v>8803</v>
-      </c>
-      <c r="I25" s="23">
-        <v>3864</v>
-      </c>
-      <c r="J25" s="24">
-        <v>0.69496000000000002</v>
-      </c>
-      <c r="K25" s="24">
-        <v>2.009E-2</v>
-      </c>
-      <c r="L25" s="24">
-        <v>-5.289E-2</v>
-      </c>
-      <c r="M25" s="24">
-        <v>-4.4099999999999999E-3</v>
-      </c>
-      <c r="N25" s="24">
-        <v>-2.1800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D26" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E26" s="23">
-        <v>201</v>
-      </c>
-      <c r="F26" s="23">
-        <v>12645</v>
-      </c>
-      <c r="G26" s="23">
-        <v>62</v>
-      </c>
-      <c r="H26" s="23">
-        <v>11269</v>
-      </c>
-      <c r="I26" s="23">
-        <v>1376</v>
-      </c>
-      <c r="J26" s="24">
-        <v>0.89117999999999997</v>
-      </c>
-      <c r="K26" s="24">
-        <v>2.01E-2</v>
-      </c>
-      <c r="L26" s="24">
-        <v>-0.11652999999999999</v>
-      </c>
-      <c r="M26" s="24">
-        <v>-1.66E-2</v>
-      </c>
-      <c r="N26" s="24">
-        <v>5.2300000000000003E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D27" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E27" s="23">
-        <v>201</v>
-      </c>
-      <c r="F27" s="23">
-        <v>12684</v>
-      </c>
-      <c r="G27" s="23">
-        <v>63</v>
-      </c>
-      <c r="H27" s="23">
-        <v>8970</v>
-      </c>
-      <c r="I27" s="23">
-        <v>3714</v>
-      </c>
-      <c r="J27" s="24">
-        <v>0.70718999999999999</v>
-      </c>
-      <c r="K27" s="24">
-        <v>2.7310000000000001E-2</v>
-      </c>
-      <c r="L27" s="24">
-        <v>-5.3429999999999998E-2</v>
-      </c>
-      <c r="M27" s="26">
-        <v>2.2699999999999999E-3</v>
-      </c>
-      <c r="N27" s="24">
-        <v>3.6700000000000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D28" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E28" s="23">
-        <v>201</v>
-      </c>
-      <c r="F28" s="23">
-        <v>12652</v>
-      </c>
-      <c r="G28" s="23">
-        <v>62</v>
-      </c>
-      <c r="H28" s="23">
-        <v>11394</v>
-      </c>
-      <c r="I28" s="23">
-        <v>1258</v>
-      </c>
-      <c r="J28" s="26">
-        <v>0.90056999999999998</v>
-      </c>
-      <c r="K28" s="24">
-        <v>2.6540000000000001E-2</v>
-      </c>
-      <c r="L28" s="24">
-        <v>-0.11631</v>
-      </c>
-      <c r="M28" s="24">
-        <v>-6.6899999999999998E-3</v>
-      </c>
-      <c r="N28" s="24">
-        <v>1.2330000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D29" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E29" s="23">
-        <v>201</v>
-      </c>
-      <c r="F29" s="23">
-        <v>12655</v>
-      </c>
-      <c r="G29" s="23">
-        <v>62</v>
-      </c>
-      <c r="H29" s="23">
-        <v>7010</v>
-      </c>
-      <c r="I29" s="23">
-        <v>5645</v>
-      </c>
-      <c r="J29" s="24">
-        <v>0.55393000000000003</v>
-      </c>
-      <c r="K29" s="24">
-        <v>5.6059999999999999E-2</v>
-      </c>
-      <c r="L29" s="24">
-        <v>-5.2900000000000003E-2</v>
-      </c>
-      <c r="M29" s="24">
-        <v>-2.7699999999999999E-3</v>
-      </c>
-      <c r="N29" s="24">
-        <v>7.45E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="22">
-        <v>43102</v>
-      </c>
-      <c r="D30" s="22">
-        <v>43404</v>
-      </c>
-      <c r="E30" s="23">
-        <v>201</v>
-      </c>
-      <c r="F30" s="23">
-        <v>12645</v>
-      </c>
-      <c r="G30" s="23">
-        <v>62</v>
-      </c>
-      <c r="H30" s="23">
-        <v>5687</v>
-      </c>
-      <c r="I30" s="23">
-        <v>6958</v>
-      </c>
-      <c r="J30" s="24">
-        <v>0.44973999999999997</v>
-      </c>
-      <c r="K30" s="24">
-        <v>9.2020000000000005E-2</v>
-      </c>
-      <c r="L30" s="24">
-        <v>-5.0909999999999997E-2</v>
-      </c>
-      <c r="M30" s="24">
-        <v>-9.0000000000000006E-5</v>
-      </c>
-      <c r="N30" s="24">
-        <v>1.337E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="25" t="s">
+      <c r="C33" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D33" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E33" s="8">
+        <v>201</v>
+      </c>
+      <c r="F33" s="8">
+        <v>9676</v>
+      </c>
+      <c r="G33" s="8">
+        <v>48</v>
+      </c>
+      <c r="H33" s="8">
+        <v>5955</v>
+      </c>
+      <c r="I33" s="8">
+        <v>3721</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.61543999999999999</v>
+      </c>
+      <c r="K33" s="9">
+        <v>5.9479999999999998E-2</v>
+      </c>
+      <c r="L33" s="9">
+        <v>-4.9489999999999999E-2</v>
+      </c>
+      <c r="M33" s="9">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1.7569999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D34" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E34" s="8">
+        <v>201</v>
+      </c>
+      <c r="F34" s="8">
+        <v>9704</v>
+      </c>
+      <c r="G34" s="8">
+        <v>48</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5169</v>
+      </c>
+      <c r="I34" s="8">
+        <v>4535</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.53266999999999998</v>
+      </c>
+      <c r="K34" s="9">
+        <v>3.7109999999999997E-2</v>
+      </c>
+      <c r="L34" s="9">
+        <v>-3.4410000000000003E-2</v>
+      </c>
+      <c r="M34" s="19">
+        <v>3.98E-3</v>
+      </c>
+      <c r="N34" s="9">
+        <v>3.6900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="27">
-        <v>43102</v>
-      </c>
-      <c r="D31" s="27">
-        <v>43404</v>
-      </c>
-      <c r="E31" s="28">
-        <v>201</v>
-      </c>
-      <c r="F31" s="28">
-        <v>12629</v>
-      </c>
-      <c r="G31" s="28">
-        <v>62</v>
-      </c>
-      <c r="H31" s="28">
-        <v>5148</v>
-      </c>
-      <c r="I31" s="28">
-        <v>7481</v>
-      </c>
-      <c r="J31" s="29">
-        <v>0.40762999999999999</v>
-      </c>
-      <c r="K31" s="29">
-        <v>0.10704</v>
-      </c>
-      <c r="L31" s="29">
-        <v>-4.9939999999999998E-2</v>
-      </c>
-      <c r="M31" s="29">
-        <v>-3.8600000000000001E-3</v>
-      </c>
-      <c r="N31" s="29">
-        <v>1.405E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="30" t="s">
+      <c r="C35" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D35" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E35" s="8">
+        <v>201</v>
+      </c>
+      <c r="F35" s="8">
+        <v>9676</v>
+      </c>
+      <c r="G35" s="8">
+        <v>48</v>
+      </c>
+      <c r="H35" s="8">
+        <v>4717</v>
+      </c>
+      <c r="I35" s="8">
+        <v>4959</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.48748999999999998</v>
+      </c>
+      <c r="K35" s="9">
+        <v>5.1090000000000003E-2</v>
+      </c>
+      <c r="L35" s="9">
+        <v>-3.4009999999999999E-2</v>
+      </c>
+      <c r="M35" s="19">
+        <v>3.7100000000000002E-3</v>
+      </c>
+      <c r="N35" s="9">
+        <v>7.4799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D36" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E36" s="8">
+        <v>201</v>
+      </c>
+      <c r="F36" s="8">
+        <v>28769</v>
+      </c>
+      <c r="G36" s="8">
+        <v>143</v>
+      </c>
+      <c r="H36" s="8">
+        <v>12927</v>
+      </c>
+      <c r="I36" s="8">
+        <v>15842</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.44934000000000002</v>
+      </c>
+      <c r="K36" s="9">
+        <v>4.4049999999999999E-2</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-5.8009999999999999E-2</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="N36" s="9">
+        <v>-1.2149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="27">
-        <v>43102</v>
-      </c>
-      <c r="D32" s="27">
-        <v>43404</v>
-      </c>
-      <c r="E32" s="28">
-        <v>201</v>
-      </c>
-      <c r="F32" s="28">
-        <v>12119</v>
-      </c>
-      <c r="G32" s="28">
-        <v>60</v>
-      </c>
-      <c r="H32" s="28">
-        <v>5387</v>
-      </c>
-      <c r="I32" s="28">
-        <v>6732</v>
-      </c>
-      <c r="J32" s="29">
-        <v>0.44451000000000002</v>
-      </c>
-      <c r="K32" s="29">
-        <v>6.3509999999999997E-2</v>
-      </c>
-      <c r="L32" s="29">
-        <v>-4.6620000000000002E-2</v>
-      </c>
-      <c r="M32" s="29">
-        <v>-8.6999999999999994E-3</v>
-      </c>
-      <c r="N32" s="29">
-        <v>2.33E-3</v>
+      <c r="C37" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D37" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E37" s="8">
+        <v>201</v>
+      </c>
+      <c r="F37" s="8">
+        <v>4140</v>
+      </c>
+      <c r="G37" s="8">
+        <v>20</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2169</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1971</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.52390999999999999</v>
+      </c>
+      <c r="K37" s="9">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-2.9569999999999999E-2</v>
+      </c>
+      <c r="M37" s="9">
+        <v>-7.1000000000000002E-4</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D38" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E38" s="8">
+        <v>201</v>
+      </c>
+      <c r="F38" s="8">
+        <v>197</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
+        <v>82</v>
+      </c>
+      <c r="I38" s="8">
+        <v>115</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.41624</v>
+      </c>
+      <c r="K38" s="9">
+        <v>6.9809999999999997E-2</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-6.2399999999999997E-2</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-7.3699999999999998E-3</v>
+      </c>
+      <c r="N38" s="9">
+        <v>-7.3699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D39" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E39" s="8">
+        <v>201</v>
+      </c>
+      <c r="F39" s="8">
+        <v>199</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8">
+        <v>108</v>
+      </c>
+      <c r="I39" s="8">
+        <v>91</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.54271000000000003</v>
+      </c>
+      <c r="K39" s="9">
+        <v>3.6420000000000001E-2</v>
+      </c>
+      <c r="L39" s="9">
+        <v>-4.0309999999999999E-2</v>
+      </c>
+      <c r="M39" s="19">
+        <v>1.33E-3</v>
+      </c>
+      <c r="N39" s="19">
+        <v>1.33E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D40" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E40" s="8">
+        <v>201</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4580</v>
+      </c>
+      <c r="G40" s="8">
+        <v>22</v>
+      </c>
+      <c r="H40" s="8">
+        <v>2369</v>
+      </c>
+      <c r="I40" s="8">
+        <v>2211</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.51724999999999999</v>
+      </c>
+      <c r="K40" s="9">
+        <v>3.7920000000000002E-2</v>
+      </c>
+      <c r="L40" s="9">
+        <v>-4.8590000000000001E-2</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-7.3499999999999998E-3</v>
+      </c>
+      <c r="N40" s="9">
+        <v>-3.8500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D41" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E41" s="8">
+        <v>201</v>
+      </c>
+      <c r="F41" s="8">
+        <v>4605</v>
+      </c>
+      <c r="G41" s="8">
+        <v>22</v>
+      </c>
+      <c r="H41" s="8">
+        <v>2101</v>
+      </c>
+      <c r="I41" s="8">
+        <v>2504</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0.45623999999999998</v>
+      </c>
+      <c r="K41" s="9">
+        <v>2.3640000000000001E-2</v>
+      </c>
+      <c r="L41" s="9">
+        <v>-2.3560000000000001E-2</v>
+      </c>
+      <c r="M41" s="9">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="N41" s="9">
+        <v>-2.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E42" s="8">
+        <v>201</v>
+      </c>
+      <c r="F42" s="8">
+        <v>187</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <v>84</v>
+      </c>
+      <c r="I42" s="8">
+        <v>103</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.44919999999999999</v>
+      </c>
+      <c r="K42" s="9">
+        <v>4.4389999999999999E-2</v>
+      </c>
+      <c r="L42" s="9">
+        <v>-5.4550000000000001E-2</v>
+      </c>
+      <c r="M42" s="9">
+        <v>-1.0109999999999999E-2</v>
+      </c>
+      <c r="N42" s="9">
+        <v>-1.0109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D43" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E43" s="8">
+        <v>201</v>
+      </c>
+      <c r="F43" s="8">
+        <v>188</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <v>92</v>
+      </c>
+      <c r="I43" s="8">
+        <v>96</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.48936000000000002</v>
+      </c>
+      <c r="K43" s="9">
+        <v>2.8029999999999999E-2</v>
+      </c>
+      <c r="L43" s="9">
+        <v>-2.8799999999999999E-2</v>
+      </c>
+      <c r="M43" s="9">
+        <v>-9.8999999999999999E-4</v>
+      </c>
+      <c r="N43" s="9">
+        <v>-9.8999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D44" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E44" s="8">
+        <v>201</v>
+      </c>
+      <c r="F44" s="8">
+        <v>4116</v>
+      </c>
+      <c r="G44" s="8">
+        <v>20</v>
+      </c>
+      <c r="H44" s="8">
+        <v>2212</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1904</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.53741000000000005</v>
+      </c>
+      <c r="K44" s="9">
+        <v>4.6280000000000002E-2</v>
+      </c>
+      <c r="L44" s="9">
+        <v>-4.9979999999999997E-2</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-8.2799999999999992E-3</v>
+      </c>
+      <c r="N44" s="9">
+        <v>1.75E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="43">
+        <v>43102</v>
+      </c>
+      <c r="D45" s="43">
+        <v>43404</v>
+      </c>
+      <c r="E45" s="44">
+        <v>201</v>
+      </c>
+      <c r="F45" s="44">
+        <v>198</v>
+      </c>
+      <c r="G45" s="44">
+        <v>0</v>
+      </c>
+      <c r="H45" s="44">
+        <v>99</v>
+      </c>
+      <c r="I45" s="44">
+        <v>99</v>
+      </c>
+      <c r="J45" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="45">
+        <v>6.0630000000000003E-2</v>
+      </c>
+      <c r="L45" s="45">
+        <v>-3.7420000000000002E-2</v>
+      </c>
+      <c r="M45" s="46">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N45" s="46">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="42"/>
+      <c r="B46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="43">
+        <v>43102</v>
+      </c>
+      <c r="D46" s="43">
+        <v>43404</v>
+      </c>
+      <c r="E46" s="44">
+        <v>201</v>
+      </c>
+      <c r="F46" s="44">
+        <v>195</v>
+      </c>
+      <c r="G46" s="44">
+        <v>0</v>
+      </c>
+      <c r="H46" s="44">
+        <v>80</v>
+      </c>
+      <c r="I46" s="44">
+        <v>115</v>
+      </c>
+      <c r="J46" s="45">
+        <v>0.41026000000000001</v>
+      </c>
+      <c r="K46" s="45">
+        <v>7.9630000000000006E-2</v>
+      </c>
+      <c r="L46" s="45">
+        <v>-6.8070000000000006E-2</v>
+      </c>
+      <c r="M46" s="45">
+        <v>-7.4799999999999997E-3</v>
+      </c>
+      <c r="N46" s="45">
+        <v>-7.4799999999999997E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="23">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A13:A17"/>
@@ -2241,11 +3200,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/回测记录/5日线下阳线策略回测.xlsx
+++ b/回测记录/5日线下阳线策略回测.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20840" yWindow="1500" windowWidth="31280" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>持股</t>
   </si>
@@ -558,6 +558,76 @@
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>最低价1日止损，最低价买入</t>
+    <rPh sb="0" eb="1">
+      <t>zui'di'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi's</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zui'di'j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mai'ru</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日线下阳线，振幅超过5%</t>
+    <rPh sb="1" eb="2">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhen'fu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chao'guo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10日线下阳线，振幅超过7%</t>
+    <rPh sb="2" eb="3">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yang'x</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhen'fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chao'guo</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低价买入,持有20日，2%止盈，不止损</t>
+    <rPh sb="17" eb="18">
+      <t>bu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -566,7 +636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -670,6 +740,11 @@
       <name val="STHeiti"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="5">
@@ -836,7 +911,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -889,55 +964,82 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1217,80 +1319,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G48" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="32"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1334,7 +1436,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1478,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
@@ -1726,7 +1828,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1770,7 +1872,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1914,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1854,7 +1956,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +1998,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1938,7 +2040,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="43" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1982,7 +2084,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -2024,7 +2126,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2066,7 +2168,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2110,7 +2212,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
@@ -2152,7 +2254,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +2296,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
@@ -2236,7 +2338,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2380,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
@@ -2320,7 +2422,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="14" t="s">
         <v>25</v>
       </c>
@@ -2362,7 +2464,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="14" t="s">
         <v>26</v>
       </c>
@@ -2404,7 +2506,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="14" t="s">
         <v>28</v>
       </c>
@@ -2446,7 +2548,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
@@ -2488,7 +2590,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="14" t="s">
         <v>30</v>
       </c>
@@ -2530,7 +2632,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="24" t="s">
         <v>33</v>
       </c>
@@ -2572,7 +2674,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -2616,7 +2718,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
@@ -2658,7 +2760,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="14" t="s">
         <v>31</v>
       </c>
@@ -2788,7 +2890,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="44" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -2832,7 +2934,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -2874,7 +2976,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="44" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -2918,7 +3020,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="10" t="s">
         <v>34</v>
       </c>
@@ -2960,7 +3062,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="44" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -3004,7 +3106,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="10" t="s">
         <v>34</v>
       </c>
@@ -3090,89 +3192,177 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="50" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="43">
-        <v>43102</v>
-      </c>
-      <c r="D45" s="43">
-        <v>43404</v>
-      </c>
-      <c r="E45" s="44">
-        <v>201</v>
-      </c>
-      <c r="F45" s="44">
+      <c r="C45" s="28">
+        <v>43102</v>
+      </c>
+      <c r="D45" s="28">
+        <v>43404</v>
+      </c>
+      <c r="E45" s="29">
+        <v>201</v>
+      </c>
+      <c r="F45" s="29">
         <v>198</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="29">
         <v>0</v>
       </c>
-      <c r="H45" s="44">
+      <c r="H45" s="29">
         <v>99</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="29">
         <v>99</v>
       </c>
-      <c r="J45" s="45">
+      <c r="J45" s="30">
         <v>0.5</v>
       </c>
-      <c r="K45" s="45">
+      <c r="K45" s="30">
         <v>6.0630000000000003E-2</v>
       </c>
-      <c r="L45" s="45">
+      <c r="L45" s="30">
         <v>-3.7420000000000002E-2</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="31">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="31">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="43">
-        <v>43102</v>
-      </c>
-      <c r="D46" s="43">
-        <v>43404</v>
-      </c>
-      <c r="E46" s="44">
-        <v>201</v>
-      </c>
-      <c r="F46" s="44">
+      <c r="C46" s="28">
+        <v>43102</v>
+      </c>
+      <c r="D46" s="28">
+        <v>43404</v>
+      </c>
+      <c r="E46" s="29">
+        <v>201</v>
+      </c>
+      <c r="F46" s="29">
         <v>195</v>
       </c>
-      <c r="G46" s="44">
+      <c r="G46" s="29">
         <v>0</v>
       </c>
-      <c r="H46" s="44">
+      <c r="H46" s="29">
         <v>80</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I46" s="29">
         <v>115</v>
       </c>
-      <c r="J46" s="45">
+      <c r="J46" s="30">
         <v>0.41026000000000001</v>
       </c>
-      <c r="K46" s="45">
+      <c r="K46" s="30">
         <v>7.9630000000000006E-2</v>
       </c>
-      <c r="L46" s="45">
+      <c r="L46" s="30">
         <v>-6.8070000000000006E-2</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M46" s="30">
         <v>-7.4799999999999997E-3</v>
       </c>
-      <c r="N46" s="45">
+      <c r="N46" s="30">
         <v>-7.4799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="34">
+        <v>43102</v>
+      </c>
+      <c r="D49" s="34">
+        <v>43404</v>
+      </c>
+      <c r="E49" s="35">
+        <v>201</v>
+      </c>
+      <c r="F49" s="35">
+        <v>4075</v>
+      </c>
+      <c r="G49" s="35">
+        <v>20</v>
+      </c>
+      <c r="H49" s="35">
+        <v>2692</v>
+      </c>
+      <c r="I49" s="35">
+        <v>1383</v>
+      </c>
+      <c r="J49" s="37">
+        <v>0.66061000000000003</v>
+      </c>
+      <c r="K49" s="36">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="L49" s="36">
+        <v>-1.6959999999999999E-2</v>
+      </c>
+      <c r="M49" s="38">
+        <v>3.3390000000000003E-2</v>
+      </c>
+      <c r="N49" s="38">
+        <v>3.2300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="28">
+        <v>43102</v>
+      </c>
+      <c r="D50" s="28">
+        <v>43404</v>
+      </c>
+      <c r="E50" s="29">
+        <v>201</v>
+      </c>
+      <c r="F50" s="29">
+        <v>12525</v>
+      </c>
+      <c r="G50" s="29">
+        <v>62</v>
+      </c>
+      <c r="H50" s="29">
+        <v>12129</v>
+      </c>
+      <c r="I50" s="29">
+        <v>396</v>
+      </c>
+      <c r="J50" s="55">
+        <v>0.96838000000000002</v>
+      </c>
+      <c r="K50" s="30">
+        <v>2.0129999999999999E-2</v>
+      </c>
+      <c r="L50" s="30">
+        <v>-0.12304</v>
+      </c>
+      <c r="M50" s="54">
+        <v>6.9899999999999997E-3</v>
+      </c>
+      <c r="N50" s="54">
+        <v>1.5599999999999999E-2</v>
       </c>
     </row>
   </sheetData>
